--- a/Productbacklog_TLZ.xlsx
+++ b/Productbacklog_TLZ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF9432-FEBB-4F6C-A562-08F7FD441B39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB012359-D742-445A-91E3-10730EE9ADDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -78,16 +78,6 @@
 (member)</t>
   </si>
   <si>
-    <t>- select court
-- select week
-- shows existing reservations
-- select available time (max 1h/day/user)
-- court only open from 8-22
-- booking at least 30' in advance
-- delete until start time 
-- add partner</t>
-  </si>
-  <si>
     <t>Calender</t>
   </si>
   <si>
@@ -109,6 +99,14 @@
   </si>
   <si>
     <t>partner finder</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>- weekly view
+- colour coding
+- 15 min intervals</t>
   </si>
   <si>
     <t>- Registration for new User
@@ -117,7 +115,7 @@
             - encrypted Password (+Salt)
             - gender
             - rank (assigned by admin)
-            - age
+            - birthdate
             - automated email to admin
             - skill level
 - unlock users
@@ -128,12 +126,45 @@
 - DSGVO/AGB agreement</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>- weekly view
-- colour coding
-- 15 min intervals</t>
+    <t>- select court
+- select week
+- shows existing reservations
+- select available time (max 1h/day/user)
+- court only open from 8-22
+- booking at least 30' in advance
+- delete until start time 
+- add partner'</t>
+  </si>
+  <si>
+    <t>Me as a member of the tennis club should  be able to select a court to play on; select a week that suits perfectly to play; see the already existing reservations; select available time, but only 1 hour max per day and per user. The only timespan to be able to reserve is from 8-22 o'clock. To be avoid any complications the reservation should be done at least 30' in advance. On the other hand, the function of deleting reservations is possible until the start time. To not train alone, the opportunity of adding a playing partner is also existing.</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Done by</t>
+  </si>
+  <si>
+    <t>Kilian Truong</t>
+  </si>
+  <si>
+    <t>Me as being an admin of the system, 
+should be able to have basically the same features as a member, but some extra features. I can create, delete or edit existing reservations that has been created by members. In case of important trainings for completitons, permanent reservations can be created, therefore no "normal" member can reserve the specific court this time. In case of new registration, new users has to be permitted by my authority. If some courts are damaged or generelly not able to be reservated, the admin can lock this court. Consequently users, whose reservations are affected, are getting notiied</t>
+  </si>
+  <si>
+    <t>The calender should basically show every reservations made in one week. 
+Reservations are shown in 15' intervalls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration for new users requires following data. 
+First off the E-Mail of the current user, 
+the First as well as the Last name of the User. The Encrypted Password (+Salt) should be enterd by the user, furthermore essentials are the gender, rank and  birthdate. If the data has been inserted and confirmed, and automiced mail shoud be sent to the admin to cofirm the access. As a result of that the admin has to enter a skill level of the player. 
+Only an admin is permitted to unlock users/reenter users, set the rank of the new enteries, and it should be possible to send an automated confirmation/rejection mail. He/She should delete the data in case of rejection, and the DSGVO/AGB should also be checked.
+</t>
+  </si>
+  <si>
+    <t>The Login for not members should be accessable without an login,
+but therefore it's also not possible to edit, add,   delete any changes. Basically the calender is just available to overview it</t>
   </si>
 </sst>
 </file>
@@ -183,29 +214,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,29 +524,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,117 +560,141 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Productbacklog_TLZ.xlsx
+++ b/Productbacklog_TLZ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB012359-D742-445A-91E3-10730EE9ADDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFC75E3-BD71-4F79-A0DB-895C1A28D204}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -109,7 +109,52 @@
 - 15 min intervals</t>
   </si>
   <si>
-    <t>- Registration for new User
+    <t>- select court
+- select week
+- shows existing reservations
+- select available time (max 1h/day/user)
+- court only open from 8-22
+- booking at least 30' in advance
+- delete until start time 
+- add partner'</t>
+  </si>
+  <si>
+    <t>Me as a member of the tennis club should  be able to select a court to play on; select a week that suits perfectly to play; see the already existing reservations; select available time, but only 1 hour max per day and per user. The only timespan to be able to reserve is from 8-22 o'clock. To be avoid any complications the reservation should be done at least 30' in advance. On the other hand, the function of deleting reservations is possible until the start time. To not train alone, the opportunity of adding a playing partner is also existing.</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Done by</t>
+  </si>
+  <si>
+    <t>Kilian Truong</t>
+  </si>
+  <si>
+    <t>Me as being an admin of the system, 
+should be able to have basically the same features as a member, but some extra features. I can create, delete or edit existing reservations that has been created by members. In case of important trainings for completitons, permanent reservations can be created, therefore no "normal" member can reserve the specific court this time. In case of new registration, new users has to be permitted by my authority. If some courts are damaged or generelly not able to be reservated, the admin can lock this court. Consequently users, whose reservations are affected, are getting notiied</t>
+  </si>
+  <si>
+    <t>The calender should basically show every reservations made in one week. 
+Reservations are shown in 15' intervalls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration for new users requires following data. 
+First off the E-Mail of the current user, 
+the First as well as the Last name of the User. The Encrypted Password (+Salt) should be enterd by the user, furthermore essentials are the gender, rank and  birthdate. If the data has been inserted and confirmed, and automiced mail shoud be sent to the admin to cofirm the access. As a result of that the admin has to enter a skill level of the player. 
+Only an admin is permitted to unlock users/reenter users, set the rank of the new enteries, and it should be possible to send an automated confirmation/rejection mail. He/She should delete the data in case of rejection, and the DSGVO/AGB should also be checked.
+</t>
+  </si>
+  <si>
+    <t>The Login for not members should be accessable without an login,
+but therefore it's also not possible to edit, add,   delete any changes. Basically the calender is just available to overview it</t>
+  </si>
+  <si>
+    <t>Paul, Tobi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Registration for new User
             - E-Mail
             - First-/Lastname
             - encrypted Password (+Salt)
@@ -121,57 +166,27 @@
 - unlock users
             - by admin
             - set rank
-            - automated confirmation/rejection email
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            - automated confirmation/rejection email
             - delete data if rejected
 - DSGVO/AGB agreement</t>
-  </si>
-  <si>
-    <t>- select court
-- select week
-- shows existing reservations
-- select available time (max 1h/day/user)
-- court only open from 8-22
-- booking at least 30' in advance
-- delete until start time 
-- add partner'</t>
-  </si>
-  <si>
-    <t>Me as a member of the tennis club should  be able to select a court to play on; select a week that suits perfectly to play; see the already existing reservations; select available time, but only 1 hour max per day and per user. The only timespan to be able to reserve is from 8-22 o'clock. To be avoid any complications the reservation should be done at least 30' in advance. On the other hand, the function of deleting reservations is possible until the start time. To not train alone, the opportunity of adding a playing partner is also existing.</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Done by</t>
-  </si>
-  <si>
-    <t>Kilian Truong</t>
-  </si>
-  <si>
-    <t>Me as being an admin of the system, 
-should be able to have basically the same features as a member, but some extra features. I can create, delete or edit existing reservations that has been created by members. In case of important trainings for completitons, permanent reservations can be created, therefore no "normal" member can reserve the specific court this time. In case of new registration, new users has to be permitted by my authority. If some courts are damaged or generelly not able to be reservated, the admin can lock this court. Consequently users, whose reservations are affected, are getting notiied</t>
-  </si>
-  <si>
-    <t>The calender should basically show every reservations made in one week. 
-Reservations are shown in 15' intervalls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration for new users requires following data. 
-First off the E-Mail of the current user, 
-the First as well as the Last name of the User. The Encrypted Password (+Salt) should be enterd by the user, furthermore essentials are the gender, rank and  birthdate. If the data has been inserted and confirmed, and automiced mail shoud be sent to the admin to cofirm the access. As a result of that the admin has to enter a skill level of the player. 
-Only an admin is permitted to unlock users/reenter users, set the rank of the new enteries, and it should be possible to send an automated confirmation/rejection mail. He/She should delete the data in case of rejection, and the DSGVO/AGB should also be checked.
-</t>
-  </si>
-  <si>
-    <t>The Login for not members should be accessable without an login,
-but therefore it's also not possible to edit, add,   delete any changes. Basically the calender is just available to overview it</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +198,13 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,14 +257,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,12 +562,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -561,10 +583,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -572,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -581,15 +603,15 @@
         <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>27</v>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -605,8 +627,8 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -622,8 +644,8 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -632,15 +654,18 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>30</v>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -651,8 +676,8 @@
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>26</v>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
